--- a/biology/Mycologie/Mucronella/Mucronella.xlsx
+++ b/biology/Mycologie/Mucronella/Mucronella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mucronella, en français petite pointe[réf. nécessaire], est un genre de champignons de la famille des Clavariaceae. Il comporte une vingtaine d'espèces en 1874[1][réf. incomplète].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mucronella, en français petite pointe[réf. nécessaire], est un genre de champignons de la famille des Clavariaceae. Il comporte une vingtaine d'espèces en 1874[réf. incomplète].
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Forme clavaroïde pendue, en forme de larme.
 </t>
@@ -542,7 +556,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sans valeur
 </t>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce type avait été initialement nommée Hydnum calvum dans le cadre d'une collaboration entre le botaniste allemand Johannes Baptista von Albertini et l'Américain Lewis David de Schweinitz en 1805[2]; le mycologue suédois Elias Magnus Fries l'a transférée peu après dans le genre Mucronella qu'il avait nouvellement décrit en 1874[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce type avait été initialement nommée Hydnum calvum dans le cadre d'une collaboration entre le botaniste allemand Johannes Baptista von Albertini et l'Américain Lewis David de Schweinitz en 1805; le mycologue suédois Elias Magnus Fries l'a transférée peu après dans le genre Mucronella qu'il avait nouvellement décrit en 1874.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Index Fungorum                                      (28 octobre 2013)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Index Fungorum                                      (28 octobre 2013) :
 Mucronella albidula (Corner) Berthier 1985
 Mucronella argentina Speg. 1898
 Mucronella belalongensis P. Roberts 1998
@@ -625,7 +645,7 @@
 Mucronella subtilis P. Karst. 1888
 Mucronella togoensis Henn. 1897
 Mucronella viticola Pass. &amp; Beltrani 1882
-Selon NCBI  (28 octobre 2013)[5] :
+Selon NCBI  (28 octobre 2013) :
 Mucronella bresadolae
 Mucronella calva
 Mucronella fusiformis
